--- a/biology/Botanique/Liste_de_jardins_botaniques_en_Italie/Liste_de_jardins_botaniques_en_Italie.xlsx
+++ b/biology/Botanique/Liste_de_jardins_botaniques_en_Italie/Liste_de_jardins_botaniques_en_Italie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des jardins botaniques en Italie recense alphabétiquement  les jardins botaniques italiens par région.
 </t>
@@ -511,7 +523,9 @@
           <t>Abruzzes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Jardin botanique de l'Université de L'Aquila (Orto Botanico dell'Aquila)</t>
         </is>
@@ -541,7 +555,9 @@
           <t>Calabre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jardin botanique de l'Université de Calabre (Orto botanico dell'università della Calabria)</t>
         </is>
@@ -571,7 +587,9 @@
           <t>Campanie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jardin botanique de l'Université de Camerino (Orto Botanico dell'Università di Camerino)
 Jardin botanique de Naples (Orto botanico di Napoli)</t>
@@ -602,7 +620,9 @@
           <t>Émilie-Romagne</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jardin botanique de l'université de Bologne (Orto botanico dell'università di Bologna)
 Jardin botanique de l'université de Modène (Orto botanico università di Modena e Reggio Emilia)
@@ -634,7 +654,9 @@
           <t>Frioul-Vénétie julienne</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Jardin botanique Carsiana de Sgonico (Giardino botanico Carsiana)
 Jardin botanique municipal de Trieste (Civico orto botanico di Trieste)</t>
@@ -665,7 +687,9 @@
           <t>Latium</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Jardin botanique de l'Université de Rome (Orto botanico e arboreto «Tor Vergata»)
 Jardin botanique de l'Université de Tuscia, Viterbe (Orto botanico dell'università della Tuscia)
@@ -697,7 +721,9 @@
           <t>Ligurie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Jardin botanique de Cogoleto (Orto botanico Villa Beuca)
 Jardin botanique de l'Université de Gênes (Orto botanico dell'università di Genova)
@@ -730,7 +756,9 @@
           <t>Lombardie</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Jardin botanique de Bergame (Orto botanico di Bergamo)
 Jardin botanique de l'université de Milan (Orto botanico di Brera)
@@ -762,7 +790,9 @@
           <t>Marches</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Jardin botanique de l'Université d'Urbino (Orto Botanico «P. Scaramella» dell'università di Urbino)</t>
         </is>
@@ -792,7 +822,9 @@
           <t>Ombrie</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Jardin botanique de Pérouse (Orto Botanico di Perugia)</t>
         </is>
@@ -822,7 +854,9 @@
           <t>Piémont</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Jardin botanique de Turin (Orto botanico di Torino)</t>
         </is>
@@ -852,7 +886,9 @@
           <t>Pouilles</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Jardin botanique de Bari (Orto Botanico di Bari)
 Jardin botanique de Lecce (Orto botanico di Lecce)</t>
@@ -883,7 +919,9 @@
           <t>Sardaigne</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Jardin botanique de Cagliari (Orto botanico di Cagliari)</t>
         </is>
@@ -913,7 +951,9 @@
           <t>Sicile</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Jardin botanique de l'Université de Catane (Orto botanico dell'università di Catania)
 Jardin botanique de Palerme (Orto botanico di Palermo)</t>
@@ -944,7 +984,9 @@
           <t>Toscane</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Jardin botanique de la forêt d'Abetone (Orto botanico Forestale dell'Abetone)
 Arboretum Carlo Siemoni (Arboreto Carlo Siemoni)
@@ -985,7 +1027,9 @@
           <t>Trentin-Haut-Adige</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Giardino Botanico Alpino Viote, Trente</t>
         </is>
@@ -1015,7 +1059,9 @@
           <t>Vallée d'Aoste</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Jardin alpin Chanousia
 Jardin alpin Saussurea
@@ -1049,7 +1095,9 @@
           <t>Vénétie</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Jardin botanique Locatelli, Mestre (Orto botanico Locatelli )
 Jardin botanique de l'école E. Toti, Musile di Piave (Giardino botanico della Scuola Media Statale «E.Toti» di Musile di Piave)
